--- a/url_analysis.xlsx
+++ b/url_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calvi\Dropbox\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calvi\Documents\GitHub\reco-engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC35013-251F-45A7-87FA-802187DBDA69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB79A2F5-A272-40B9-BE61-9673F7221DEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="705" xr2:uid="{F3BED07B-710D-4389-889B-C807218D5847}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="705" xr2:uid="{F3BED07B-710D-4389-889B-C807218D5847}"/>
   </bookViews>
   <sheets>
     <sheet name="URL Analysis" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="69">
   <si>
     <t>Browsing URLs on the website:</t>
   </si>
@@ -245,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +294,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -331,25 +352,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -360,14 +369,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -692,416 +722,416 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="97" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="22.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -1132,475 +1162,479 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="J25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="3" t="s">
+      <c r="J26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="J31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="3" t="s">
+      <c r="J32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="3" t="s">
+      <c r="J33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="2" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A15:L15"/>
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A35:L35"/>
@@ -1610,10 +1644,6 @@
     <mergeCell ref="A27:L27"/>
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A15:L15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{05F0F16A-3BB0-4BC7-B871-4A008858FF0B}"/>
@@ -1659,106 +1689,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="6">
         <v>14</v>
       </c>
     </row>
